--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N2">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O2">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P2">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q2">
-        <v>119.819028490678</v>
+        <v>431.3299171582499</v>
       </c>
       <c r="R2">
-        <v>1078.371256416102</v>
+        <v>3881.969254424249</v>
       </c>
       <c r="S2">
-        <v>4.027708538400482E-05</v>
+        <v>0.0005118033434626708</v>
       </c>
       <c r="T2">
-        <v>4.027708538400481E-05</v>
+        <v>0.0005118033434626708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.197135</v>
       </c>
       <c r="O3">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P3">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q3">
-        <v>38.03817265369</v>
+        <v>39.31517039175</v>
       </c>
       <c r="R3">
-        <v>342.34355388321</v>
+        <v>353.83653352575</v>
       </c>
       <c r="S3">
-        <v>1.278650600929706E-05</v>
+        <v>4.665022029510615E-05</v>
       </c>
       <c r="T3">
-        <v>1.278650600929705E-05</v>
+        <v>4.665022029510616E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N4">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O4">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P4">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q4">
-        <v>148946.2094326938</v>
+        <v>52746.3353343487</v>
       </c>
       <c r="R4">
-        <v>1340515.884894244</v>
+        <v>474717.0180091383</v>
       </c>
       <c r="S4">
-        <v>0.05006816755663484</v>
+        <v>0.06258724402281246</v>
       </c>
       <c r="T4">
-        <v>0.05006816755663484</v>
+        <v>0.06258724402281247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N5">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O5">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P5">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q5">
-        <v>148.0145914217862</v>
+        <v>41.50793445919999</v>
       </c>
       <c r="R5">
-        <v>1332.131322796076</v>
+        <v>373.5714101327999</v>
       </c>
       <c r="S5">
-        <v>4.975500479239561E-05</v>
+        <v>4.925208938997343E-05</v>
       </c>
       <c r="T5">
-        <v>4.975500479239561E-05</v>
+        <v>4.925208938997344E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N6">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O6">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P6">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q6">
-        <v>28284.62045996671</v>
+        <v>32517.5113384033</v>
       </c>
       <c r="R6">
-        <v>254561.5841397004</v>
+        <v>292657.6020456296</v>
       </c>
       <c r="S6">
-        <v>0.009507856036479892</v>
+        <v>0.03858431878253912</v>
       </c>
       <c r="T6">
-        <v>0.009507856036479891</v>
+        <v>0.03858431878253914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H7">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N7">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O7">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P7">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q7">
-        <v>443097.9669470036</v>
+        <v>44270.75268436479</v>
       </c>
       <c r="R7">
-        <v>3987881.702523033</v>
+        <v>398436.7741592831</v>
       </c>
       <c r="S7">
-        <v>0.1489470818868465</v>
+        <v>0.05253036791592172</v>
       </c>
       <c r="T7">
-        <v>0.1489470818868465</v>
+        <v>0.05253036791592174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N8">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O8">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P8">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q8">
-        <v>110.430213235014</v>
+        <v>384.6193963330301</v>
       </c>
       <c r="R8">
-        <v>993.8719191151262</v>
+        <v>3461.574566997271</v>
       </c>
       <c r="S8">
-        <v>3.71210414862157E-05</v>
+        <v>0.0004563780187118741</v>
       </c>
       <c r="T8">
-        <v>3.712104148621569E-05</v>
+        <v>0.0004563780187118741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.197135</v>
       </c>
       <c r="O9">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P9">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q9">
         <v>35.05756614897001</v>
@@ -1013,10 +1013,10 @@
         <v>315.51809534073</v>
       </c>
       <c r="S9">
-        <v>1.178457714875662E-05</v>
+        <v>4.159827281844601E-05</v>
       </c>
       <c r="T9">
-        <v>1.178457714875662E-05</v>
+        <v>4.159827281844601E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N10">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O10">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P10">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q10">
-        <v>137275.0378248903</v>
+        <v>47034.21406225715</v>
       </c>
       <c r="R10">
-        <v>1235475.340424012</v>
+        <v>423307.9265603143</v>
       </c>
       <c r="S10">
-        <v>0.04614491111481311</v>
+        <v>0.05580940958790562</v>
       </c>
       <c r="T10">
-        <v>0.04614491111481311</v>
+        <v>0.05580940958790563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N11">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O11">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P11">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q11">
-        <v>136.4164198165987</v>
+        <v>37.01286662402134</v>
       </c>
       <c r="R11">
-        <v>1227.747778349388</v>
+        <v>333.115799616192</v>
       </c>
       <c r="S11">
-        <v>4.585628725207753E-05</v>
+        <v>4.391837462635807E-05</v>
       </c>
       <c r="T11">
-        <v>4.585628725207753E-05</v>
+        <v>4.391837462635809E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N12">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O12">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P12">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q12">
-        <v>26068.28571397216</v>
+        <v>28996.05402664548</v>
       </c>
       <c r="R12">
-        <v>234614.5714257494</v>
+        <v>260964.4862398093</v>
       </c>
       <c r="S12">
-        <v>0.008762836610697248</v>
+        <v>0.03440586151740703</v>
       </c>
       <c r="T12">
-        <v>0.008762836610697246</v>
+        <v>0.03440586151740704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N13">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O13">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P13">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q13">
-        <v>408377.563984052</v>
+        <v>39476.48770771935</v>
       </c>
       <c r="R13">
-        <v>3675398.075856468</v>
+        <v>355288.3893694741</v>
       </c>
       <c r="S13">
-        <v>0.1372758419150197</v>
+        <v>0.04684163465888479</v>
       </c>
       <c r="T13">
-        <v>0.1372758419150197</v>
+        <v>0.04684163465888479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N14">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O14">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P14">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q14">
-        <v>111.87799410534</v>
+        <v>600.0860568997483</v>
       </c>
       <c r="R14">
-        <v>1006.90194694806</v>
+        <v>5400.774512097735</v>
       </c>
       <c r="S14">
-        <v>3.760771204652644E-05</v>
+        <v>0.000712044395876998</v>
       </c>
       <c r="T14">
-        <v>3.760771204652644E-05</v>
+        <v>0.0007120443958769981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.197135</v>
       </c>
       <c r="O15">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P15">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q15">
-        <v>35.5171837857</v>
+        <v>54.697076734585</v>
       </c>
       <c r="R15">
-        <v>319.6546540713</v>
+        <v>492.273690611265</v>
       </c>
       <c r="S15">
-        <v>1.193907730646745E-05</v>
+        <v>6.490193616716861E-05</v>
       </c>
       <c r="T15">
-        <v>1.193907730646745E-05</v>
+        <v>6.490193616716863E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N16">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O16">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P16">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q16">
-        <v>139074.7642576663</v>
+        <v>73383.13232533856</v>
       </c>
       <c r="R16">
-        <v>1251672.878318997</v>
+        <v>660448.1909280472</v>
       </c>
       <c r="S16">
-        <v>0.04674988793789268</v>
+        <v>0.08707425797244751</v>
       </c>
       <c r="T16">
-        <v>0.04674988793789268</v>
+        <v>0.08707425797244753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H17">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I17">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J17">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N17">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O17">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P17">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q17">
-        <v>138.2048894502533</v>
+        <v>57.74775115016177</v>
       </c>
       <c r="R17">
-        <v>1243.84400505228</v>
+        <v>519.729760351456</v>
       </c>
       <c r="S17">
-        <v>4.64574801097463E-05</v>
+        <v>6.852177634889053E-05</v>
       </c>
       <c r="T17">
-        <v>4.64574801097463E-05</v>
+        <v>6.852177634889055E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H18">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I18">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J18">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N18">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O18">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P18">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q18">
-        <v>26410.05056503299</v>
+        <v>45239.86021608625</v>
       </c>
       <c r="R18">
-        <v>237690.4550852969</v>
+        <v>407158.7419447763</v>
       </c>
       <c r="S18">
-        <v>0.008877720634218602</v>
+        <v>0.05368028229741806</v>
       </c>
       <c r="T18">
-        <v>0.0088777206342186</v>
+        <v>0.05368028229741807</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H19">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I19">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J19">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N19">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O19">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P19">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q19">
-        <v>413731.5446355986</v>
+        <v>61591.51117866365</v>
       </c>
       <c r="R19">
-        <v>3723583.901720387</v>
+        <v>554323.6006079728</v>
       </c>
       <c r="S19">
-        <v>0.1390755788897142</v>
+        <v>0.07308266850081069</v>
       </c>
       <c r="T19">
-        <v>0.1390755788897142</v>
+        <v>0.0730826685008107</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N20">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O20">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P20">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q20">
-        <v>55.40088811370701</v>
+        <v>80.38679993510166</v>
       </c>
       <c r="R20">
-        <v>498.6079930233631</v>
+        <v>723.4811994159151</v>
       </c>
       <c r="S20">
-        <v>1.862297106739668E-05</v>
+        <v>9.53846031550722E-05</v>
       </c>
       <c r="T20">
-        <v>1.862297106739668E-05</v>
+        <v>9.538460315507221E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.197135</v>
       </c>
       <c r="O21">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P21">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q21">
-        <v>17.587761925485</v>
+        <v>7.327154020565001</v>
       </c>
       <c r="R21">
-        <v>158.289857329365</v>
+        <v>65.94438618508501</v>
       </c>
       <c r="S21">
-        <v>5.912114275249872E-06</v>
+        <v>8.694184605829843E-06</v>
       </c>
       <c r="T21">
-        <v>5.912114275249871E-06</v>
+        <v>8.694184605829845E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H22">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I22">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J22">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N22">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O22">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P22">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q22">
-        <v>68868.4626113742</v>
+        <v>9830.315350642431</v>
       </c>
       <c r="R22">
-        <v>619816.1635023678</v>
+        <v>88472.83815578189</v>
       </c>
       <c r="S22">
-        <v>0.02315008712559598</v>
+        <v>0.01166436192717262</v>
       </c>
       <c r="T22">
-        <v>0.02315008712559597</v>
+        <v>0.01166436192717263</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N23">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O23">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P23">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q23">
-        <v>68.43770911723267</v>
+        <v>7.735818663064888</v>
       </c>
       <c r="R23">
-        <v>615.939382055094</v>
+        <v>69.622367967584</v>
       </c>
       <c r="S23">
-        <v>2.300528962989314E-05</v>
+        <v>9.179094003639321E-06</v>
       </c>
       <c r="T23">
-        <v>2.300528962989314E-05</v>
+        <v>9.179094003639325E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H24">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I24">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J24">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N24">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O24">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P24">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q24">
-        <v>13077.99865497321</v>
+        <v>6060.276772753018</v>
       </c>
       <c r="R24">
-        <v>117701.9878947589</v>
+        <v>54542.49095477717</v>
       </c>
       <c r="S24">
-        <v>0.004396160402178835</v>
+        <v>0.007190945471714618</v>
       </c>
       <c r="T24">
-        <v>0.004396160402178835</v>
+        <v>0.007190945471714619</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H25">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I25">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J25">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N25">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O25">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P25">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q25">
-        <v>204875.8131280613</v>
+        <v>8250.724091806322</v>
       </c>
       <c r="R25">
-        <v>1843882.318152552</v>
+        <v>74256.51682625691</v>
       </c>
       <c r="S25">
-        <v>0.06886886600919431</v>
+        <v>0.009790065581342938</v>
       </c>
       <c r="T25">
-        <v>0.06886886600919431</v>
+        <v>0.00979006558134294</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H26">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N26">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O26">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P26">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q26">
-        <v>91.185910415251</v>
+        <v>396.6834875983234</v>
       </c>
       <c r="R26">
-        <v>820.673193737259</v>
+        <v>3570.15138838491</v>
       </c>
       <c r="S26">
-        <v>3.06520821098046E-05</v>
+        <v>0.0004706929131808116</v>
       </c>
       <c r="T26">
-        <v>3.06520821098046E-05</v>
+        <v>0.0004706929131808116</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H27">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.197135</v>
       </c>
       <c r="O27">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P27">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q27">
-        <v>28.948201697605</v>
+        <v>36.15719264101001</v>
       </c>
       <c r="R27">
-        <v>260.533815278445</v>
+        <v>325.41473376909</v>
       </c>
       <c r="S27">
-        <v>9.730918420679247E-06</v>
+        <v>4.29030571443144E-05</v>
       </c>
       <c r="T27">
-        <v>9.730918420679245E-06</v>
+        <v>4.290305714431441E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H28">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N28">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O28">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P28">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q28">
-        <v>113352.5774754341</v>
+        <v>48509.50380699768</v>
       </c>
       <c r="R28">
-        <v>1020173.197278907</v>
+        <v>436585.5342629791</v>
       </c>
       <c r="S28">
-        <v>0.0381033922490056</v>
+        <v>0.05755994483690707</v>
       </c>
       <c r="T28">
-        <v>0.03810339224900559</v>
+        <v>0.05755994483690708</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H29">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N29">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O29">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P29">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q29">
-        <v>112.6435879471935</v>
+        <v>38.17382367714844</v>
       </c>
       <c r="R29">
-        <v>1013.792291524742</v>
+        <v>343.564413094336</v>
       </c>
       <c r="S29">
-        <v>3.786506589863352E-05</v>
+        <v>4.529593198505393E-05</v>
       </c>
       <c r="T29">
-        <v>3.786506589863353E-05</v>
+        <v>4.529593198505394E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N30">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O30">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P30">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q30">
-        <v>21525.45300926522</v>
+        <v>29905.55324963302</v>
       </c>
       <c r="R30">
-        <v>193729.077083387</v>
+        <v>269149.9792466972</v>
       </c>
       <c r="S30">
-        <v>0.007235766469689</v>
+        <v>0.03548504643986382</v>
       </c>
       <c r="T30">
-        <v>0.007235766469688999</v>
+        <v>0.03548504643986383</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H31">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N31">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O31">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P31">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q31">
-        <v>337210.9758205292</v>
+        <v>40714.71946378707</v>
       </c>
       <c r="R31">
-        <v>3034898.782384763</v>
+        <v>366432.4751740836</v>
       </c>
       <c r="S31">
-        <v>0.113353241439474</v>
+        <v>0.04831088389833554</v>
       </c>
       <c r="T31">
-        <v>0.113353241439474</v>
+        <v>0.04831088389833554</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H32">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.256979</v>
+        <v>4.377955</v>
       </c>
       <c r="N32">
-        <v>3.770937</v>
+        <v>13.133865</v>
       </c>
       <c r="O32">
-        <v>0.0001930588710984162</v>
+        <v>0.00331672963197721</v>
       </c>
       <c r="P32">
-        <v>0.0001930588710984162</v>
+        <v>0.003316729631977211</v>
       </c>
       <c r="Q32">
-        <v>85.61070031174201</v>
+        <v>902.1178115396267</v>
       </c>
       <c r="R32">
-        <v>770.4963028056781</v>
+        <v>8119.060303856641</v>
       </c>
       <c r="S32">
-        <v>2.877797900446797E-05</v>
+        <v>0.001070426357589783</v>
       </c>
       <c r="T32">
-        <v>2.877797900446796E-05</v>
+        <v>0.001070426357589783</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H33">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.197135</v>
       </c>
       <c r="O33">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321285</v>
       </c>
       <c r="P33">
-        <v>6.128915217952528E-05</v>
+        <v>0.0003023156647321286</v>
       </c>
       <c r="Q33">
-        <v>27.17827577541</v>
+        <v>82.22688495104001</v>
       </c>
       <c r="R33">
-        <v>244.60448197869</v>
+        <v>740.0419645593601</v>
       </c>
       <c r="S33">
-        <v>9.135959019075038E-06</v>
+        <v>9.756799370126351E-05</v>
       </c>
       <c r="T33">
-        <v>9.135959019075036E-06</v>
+        <v>9.756799370126352E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H34">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1562.541941333333</v>
+        <v>535.3699646666668</v>
       </c>
       <c r="N34">
-        <v>4687.625824</v>
+        <v>1606.109894</v>
       </c>
       <c r="O34">
-        <v>0.2399901535648097</v>
+        <v>0.4055951753456866</v>
       </c>
       <c r="P34">
-        <v>0.2399901535648098</v>
+        <v>0.4055951753456867</v>
       </c>
       <c r="Q34">
-        <v>106422.0721778292</v>
+        <v>110317.8952020157</v>
       </c>
       <c r="R34">
-        <v>957798.6496004628</v>
+        <v>992861.0568181414</v>
       </c>
       <c r="S34">
-        <v>0.03577370758086752</v>
+        <v>0.1308999569984413</v>
       </c>
       <c r="T34">
-        <v>0.03577370758086752</v>
+        <v>0.1308999569984413</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H35">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.552768666666666</v>
+        <v>0.4213013333333333</v>
       </c>
       <c r="N35">
-        <v>4.658306</v>
+        <v>1.263904</v>
       </c>
       <c r="O35">
-        <v>0.0002384890804569205</v>
+        <v>0.0003191770167254287</v>
       </c>
       <c r="P35">
-        <v>0.0002384890804569206</v>
+        <v>0.0003191770167254288</v>
       </c>
       <c r="Q35">
-        <v>105.756431074396</v>
+        <v>86.81300671783822</v>
       </c>
       <c r="R35">
-        <v>951.807879669564</v>
+        <v>781.317060460544</v>
       </c>
       <c r="S35">
-        <v>3.554995277417447E-05</v>
+        <v>0.0001030097503715134</v>
       </c>
       <c r="T35">
-        <v>3.554995277417447E-05</v>
+        <v>0.0001030097503715135</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H36">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>296.7239376666667</v>
+        <v>330.0494486666666</v>
       </c>
       <c r="N36">
-        <v>890.171813</v>
+        <v>990.1483459999999</v>
       </c>
       <c r="O36">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="P36">
-        <v>0.04557370364485285</v>
+        <v>0.2500447780780009</v>
       </c>
       <c r="Q36">
-        <v>20209.36237033476</v>
+        <v>68009.71831163949</v>
       </c>
       <c r="R36">
-        <v>181884.2613330129</v>
+        <v>612087.4648047554</v>
       </c>
       <c r="S36">
-        <v>0.006793363491589276</v>
+        <v>0.08069832356905818</v>
       </c>
       <c r="T36">
-        <v>0.006793363491589275</v>
+        <v>0.08069832356905819</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4648.383870333333</v>
+        <v>449.3436586666667</v>
       </c>
       <c r="N37">
-        <v>13945.151611</v>
+        <v>1348.030976</v>
       </c>
       <c r="O37">
-        <v>0.7139433056866025</v>
+        <v>0.3404218242628776</v>
       </c>
       <c r="P37">
-        <v>0.7139433056866026</v>
+        <v>0.3404218242628777</v>
       </c>
       <c r="Q37">
-        <v>316593.5138590561</v>
+        <v>92591.38524392835</v>
       </c>
       <c r="R37">
-        <v>2849341.624731504</v>
+        <v>833322.4671953552</v>
       </c>
       <c r="S37">
-        <v>0.1064226955463538</v>
+        <v>0.1098662037075819</v>
       </c>
       <c r="T37">
-        <v>0.1064226955463538</v>
+        <v>0.1098662037075819</v>
       </c>
     </row>
   </sheetData>
